--- a/Code/Results/Cases/Case_2_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9812948249597448</v>
+        <v>1.012465150128476</v>
       </c>
       <c r="D2">
-        <v>1.003124115045425</v>
+        <v>1.01951604064521</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9571286412557246</v>
+        <v>1.010740916476713</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036090826729548</v>
+        <v>1.025470798456751</v>
       </c>
       <c r="J2">
-        <v>1.004049770457772</v>
+        <v>1.01770770969491</v>
       </c>
       <c r="K2">
-        <v>1.014540096896914</v>
+        <v>1.022359057194457</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9692194160687841</v>
+        <v>1.01361019273714</v>
       </c>
       <c r="N2">
-        <v>1.005420563940237</v>
+        <v>1.010040949031979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9855880035512997</v>
+        <v>1.013345178671971</v>
       </c>
       <c r="D3">
-        <v>1.006135606688552</v>
+        <v>1.020145884982382</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9641920221680703</v>
+        <v>1.012265847099409</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036885552847207</v>
+        <v>1.025566134964549</v>
       </c>
       <c r="J3">
-        <v>1.006479416372985</v>
+        <v>1.018221816741267</v>
       </c>
       <c r="K3">
-        <v>1.016690578644776</v>
+        <v>1.022795427714891</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9753045458299271</v>
+        <v>1.014937246691773</v>
       </c>
       <c r="N3">
-        <v>1.006233551812205</v>
+        <v>1.010211950226538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9883032717929805</v>
+        <v>1.013914539770927</v>
       </c>
       <c r="D4">
-        <v>1.008041482197673</v>
+        <v>1.020553129343506</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9686450904088681</v>
+        <v>1.013252413402638</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037376088523109</v>
+        <v>1.025626311157497</v>
       </c>
       <c r="J4">
-        <v>1.008010988565539</v>
+        <v>1.018553805669534</v>
       </c>
       <c r="K4">
-        <v>1.018043812873727</v>
+        <v>1.023076795657036</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9791372756738684</v>
+        <v>1.015795299103681</v>
       </c>
       <c r="N4">
-        <v>1.006745922591536</v>
+        <v>1.01032233751154</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9894303411722467</v>
+        <v>1.014153880806983</v>
       </c>
       <c r="D5">
-        <v>1.008832818210232</v>
+        <v>1.020724260529732</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.970490512269003</v>
+        <v>1.013667131301661</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037576757971924</v>
+        <v>1.025651246715274</v>
       </c>
       <c r="J5">
-        <v>1.008645494864919</v>
+        <v>1.018693212677721</v>
       </c>
       <c r="K5">
-        <v>1.018603838971798</v>
+        <v>1.023194844593337</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9807247197928953</v>
+        <v>1.016155875392288</v>
       </c>
       <c r="N5">
-        <v>1.00695816001094</v>
+        <v>1.010368681547543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.989618751208121</v>
+        <v>1.014194066139178</v>
       </c>
       <c r="D6">
-        <v>1.008965116398637</v>
+        <v>1.020752989824893</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.970798844533895</v>
+        <v>1.01373676238266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037610129131573</v>
+        <v>1.025655412237765</v>
       </c>
       <c r="J6">
-        <v>1.008751491649132</v>
+        <v>1.018716610275939</v>
       </c>
       <c r="K6">
-        <v>1.018697357515381</v>
+        <v>1.023214651551558</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9809898953844554</v>
+        <v>1.016216409129126</v>
       </c>
       <c r="N6">
-        <v>1.006993613272582</v>
+        <v>1.010376459231554</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9883183877017065</v>
+        <v>1.013917737929911</v>
       </c>
       <c r="D7">
-        <v>1.008052094505858</v>
+        <v>1.020555416299983</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9686698518827377</v>
+        <v>1.013257955013004</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037378791534936</v>
+        <v>1.02562664577248</v>
       </c>
       <c r="J7">
-        <v>1.008019503232215</v>
+        <v>1.018555669066086</v>
       </c>
       <c r="K7">
-        <v>1.018051330467967</v>
+        <v>1.023078373969009</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9791585792598155</v>
+        <v>1.01580011772158</v>
       </c>
       <c r="N7">
-        <v>1.006748770802958</v>
+        <v>1.010322957009592</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9827590705544949</v>
+        <v>1.012762575603121</v>
       </c>
       <c r="D8">
-        <v>1.004150930071869</v>
+        <v>1.019728962562579</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9595409692771623</v>
+        <v>1.011256311326515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036364393409829</v>
+        <v>1.025503330939751</v>
       </c>
       <c r="J8">
-        <v>1.004879496921585</v>
+        <v>1.017881593815127</v>
       </c>
       <c r="K8">
-        <v>1.01527496642292</v>
+        <v>1.022506735998869</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9712983828083035</v>
+        <v>1.014058812006992</v>
       </c>
       <c r="N8">
-        <v>1.005698221585964</v>
+        <v>1.010098793875453</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9724544418915686</v>
+        <v>1.010726452973645</v>
       </c>
       <c r="D9">
-        <v>0.9969324902528409</v>
+        <v>1.018270330221581</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9424836325728618</v>
+        <v>1.007727660642969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034389335674897</v>
+        <v>1.025274461403161</v>
       </c>
       <c r="J9">
-        <v>0.9990188609556865</v>
+        <v>1.016688638248549</v>
       </c>
       <c r="K9">
-        <v>1.010075532492953</v>
+        <v>1.021491850308427</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9565843063296612</v>
+        <v>1.01098531139976</v>
       </c>
       <c r="N9">
-        <v>1.003736686541793</v>
+        <v>1.009701786810282</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9652000991071282</v>
+        <v>1.009368651740673</v>
       </c>
       <c r="D10">
-        <v>0.9918636233284185</v>
+        <v>1.017296399074316</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9303476658252366</v>
+        <v>1.005373897520623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032937335855301</v>
+        <v>1.025114118738875</v>
       </c>
       <c r="J10">
-        <v>0.9948658490855805</v>
+        <v>1.015889874834531</v>
       </c>
       <c r="K10">
-        <v>1.006381353115285</v>
+        <v>1.02081018198698</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9460997057674934</v>
+        <v>1.008932610968912</v>
       </c>
       <c r="N10">
-        <v>1.00234639422619</v>
+        <v>1.0094357720568</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9619569952063496</v>
+        <v>1.008780616866363</v>
       </c>
       <c r="D11">
-        <v>0.9896015889739476</v>
+        <v>1.016874327407501</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9248826769908973</v>
+        <v>1.004354304818568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032274199341237</v>
+        <v>1.025042850876049</v>
       </c>
       <c r="J11">
-        <v>0.9930027539971</v>
+        <v>1.015543180544393</v>
       </c>
       <c r="K11">
-        <v>1.004722304964922</v>
+        <v>1.02051381190605</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9413752955237888</v>
+        <v>1.008042830255681</v>
       </c>
       <c r="N11">
-        <v>1.001722671202647</v>
+        <v>1.009320266550671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9607360392630862</v>
+        <v>1.008562179664324</v>
       </c>
       <c r="D12">
-        <v>0.9887506784815346</v>
+        <v>1.016717498840403</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9228183989475032</v>
+        <v>1.003975516668315</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032022490506449</v>
+        <v>1.025016102856504</v>
       </c>
       <c r="J12">
-        <v>0.9923003641294033</v>
+        <v>1.015414278865622</v>
       </c>
       <c r="K12">
-        <v>1.004096618466921</v>
+        <v>1.020403546359815</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9395903634248824</v>
+        <v>1.007712178328774</v>
       </c>
       <c r="N12">
-        <v>1.001487528069342</v>
+        <v>1.009277314688424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9609986943579586</v>
+        <v>1.008609035860887</v>
       </c>
       <c r="D13">
-        <v>0.9889336956374313</v>
+        <v>1.016751141458807</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9232627957139679</v>
+        <v>1.004056771101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032076730615323</v>
+        <v>1.025021852881515</v>
       </c>
       <c r="J13">
-        <v>0.9924515082234034</v>
+        <v>1.015441934325729</v>
       </c>
       <c r="K13">
-        <v>1.004231266389377</v>
+        <v>1.020427206857729</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9399746392268346</v>
+        <v>1.007783111061695</v>
       </c>
       <c r="N13">
-        <v>1.001538127315723</v>
+        <v>1.009286530179553</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9618564097639718</v>
+        <v>1.008762561083269</v>
       </c>
       <c r="D14">
-        <v>0.9895314741788114</v>
+        <v>1.016861364973373</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9247127608580266</v>
+        <v>1.004322995455115</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032253504326277</v>
+        <v>1.025040645504566</v>
       </c>
       <c r="J14">
-        <v>0.9929449092193894</v>
+        <v>1.015532528021331</v>
       </c>
       <c r="K14">
-        <v>1.004670781277781</v>
+        <v>1.020504701002291</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9412283806087726</v>
+        <v>1.008015501509361</v>
       </c>
       <c r="N14">
-        <v>1.001703306114731</v>
+        <v>1.009316717114977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9623826817951048</v>
+        <v>1.008857151065145</v>
       </c>
       <c r="D15">
-        <v>0.9898983498897413</v>
+        <v>1.016929270400981</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9256014933842551</v>
+        <v>1.004487016129489</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032361699195015</v>
+        <v>1.025052187699379</v>
       </c>
       <c r="J15">
-        <v>0.9932475184609064</v>
+        <v>1.0155883293546</v>
       </c>
       <c r="K15">
-        <v>1.004940313577509</v>
+        <v>1.02055242379186</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9419967916448707</v>
+        <v>1.008158665195096</v>
       </c>
       <c r="N15">
-        <v>1.001804612745788</v>
+        <v>1.009335309925249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9654131017386703</v>
+        <v>1.009407675601918</v>
       </c>
       <c r="D16">
-        <v>0.9920122819815903</v>
+        <v>1.017324403201073</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9307057037036539</v>
+        <v>1.005441555616082</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032980602706446</v>
+        <v>1.025118809839256</v>
       </c>
       <c r="J16">
-        <v>0.994988079836575</v>
+        <v>1.01591286641251</v>
       </c>
       <c r="K16">
-        <v>1.006490163744418</v>
+        <v>1.020829825765938</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9464091669555855</v>
+        <v>1.008991642358061</v>
       </c>
       <c r="N16">
-        <v>1.00238731433469</v>
+        <v>1.009443431048831</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9672860320850092</v>
+        <v>1.009752978765827</v>
       </c>
       <c r="D17">
-        <v>0.9933199052462545</v>
+        <v>1.017572165532062</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9338493419830792</v>
+        <v>1.006040202117356</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033359462695465</v>
+        <v>1.025160108118636</v>
       </c>
       <c r="J17">
-        <v>0.996062119597069</v>
+        <v>1.016116219123302</v>
       </c>
       <c r="K17">
-        <v>1.007446083355306</v>
+        <v>1.021003510754397</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9491259548647422</v>
+        <v>1.00951388938703</v>
       </c>
       <c r="N17">
-        <v>1.002746876979907</v>
+        <v>1.009511167076114</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9683687193223515</v>
+        <v>1.00995437881588</v>
       </c>
       <c r="D18">
-        <v>0.994076180914673</v>
+        <v>1.017716646998083</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9356629118355332</v>
+        <v>1.006389344539216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033577141154739</v>
+        <v>1.025184019308314</v>
       </c>
       <c r="J18">
-        <v>0.9966823799584074</v>
+        <v>1.016234751778809</v>
       </c>
       <c r="K18">
-        <v>1.007997956681991</v>
+        <v>1.021104702161031</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9506929815273668</v>
+        <v>1.009818416146253</v>
       </c>
       <c r="N18">
-        <v>1.002954523038067</v>
+        <v>1.009550645540729</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9687362611338802</v>
+        <v>1.010023049430896</v>
       </c>
       <c r="D19">
-        <v>0.9943329764515255</v>
+        <v>1.01776590563764</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9362779689037233</v>
+        <v>1.006508386835015</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033650809788866</v>
+        <v>1.025192142308913</v>
       </c>
       <c r="J19">
-        <v>0.9968928373007401</v>
+        <v>1.016275154863213</v>
       </c>
       <c r="K19">
-        <v>1.008185179397122</v>
+        <v>1.021139186113461</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9512243740213298</v>
+        <v>1.009922236612051</v>
       </c>
       <c r="N19">
-        <v>1.003024977853731</v>
+        <v>1.009564101450109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9670861010413322</v>
+        <v>1.009715931981942</v>
       </c>
       <c r="D20">
-        <v>0.993180279781547</v>
+        <v>1.01754558650184</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9335141534511834</v>
+        <v>1.005975976983648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033319157894274</v>
+        <v>1.025155695551425</v>
       </c>
       <c r="J20">
-        <v>0.9959475317631733</v>
+        <v>1.01609440952989</v>
       </c>
       <c r="K20">
-        <v>1.007344115177177</v>
+        <v>1.020984888006523</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9488363089270639</v>
+        <v>1.009457866683907</v>
       </c>
       <c r="N20">
-        <v>1.002708515927623</v>
+        <v>1.009503902828596</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9616042931315917</v>
+        <v>1.008717352143424</v>
       </c>
       <c r="D21">
-        <v>0.9893557434808369</v>
+        <v>1.016828908335452</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9242867541416784</v>
+        <v>1.004244600891337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032201599557409</v>
+        <v>1.025035119161451</v>
       </c>
       <c r="J21">
-        <v>0.9927999059860405</v>
+        <v>1.015505853859475</v>
       </c>
       <c r="K21">
-        <v>1.004541620108798</v>
+        <v>1.020481885888867</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9408600355472178</v>
+        <v>1.007947072436433</v>
       </c>
       <c r="N21">
-        <v>1.001654762439375</v>
+        <v>1.009307829139176</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9580626521454018</v>
+        <v>1.00808941926877</v>
       </c>
       <c r="D22">
-        <v>0.9868889165830651</v>
+        <v>1.016378001735326</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9182848265134863</v>
+        <v>1.003155630909402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031467633212596</v>
+        <v>1.024957711485288</v>
       </c>
       <c r="J22">
-        <v>0.9907606151285413</v>
+        <v>1.015135088159735</v>
       </c>
       <c r="K22">
-        <v>1.002724659193149</v>
+        <v>1.020164584288001</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9356696519145031</v>
+        <v>1.006996318615494</v>
       </c>
       <c r="N22">
-        <v>1.00097206513714</v>
+        <v>1.009184272264412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.959949511822632</v>
+        <v>1.008422306578579</v>
       </c>
       <c r="D23">
-        <v>0.9882027377002992</v>
+        <v>1.016617064311926</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9214865651222612</v>
+        <v>1.003732953106246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031859770323381</v>
+        <v>1.024998898010285</v>
       </c>
       <c r="J23">
-        <v>0.9918476155120458</v>
+        <v>1.01533170611373</v>
       </c>
       <c r="K23">
-        <v>1.003693254847704</v>
+        <v>1.020332890762525</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9384386572806077</v>
+        <v>1.007500414278783</v>
       </c>
       <c r="N23">
-        <v>1.00133595977082</v>
+        <v>1.009249798410093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9671764713653714</v>
+        <v>1.009732671857927</v>
       </c>
       <c r="D24">
-        <v>0.9932433903733883</v>
+        <v>1.017557596526902</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.933665672509737</v>
+        <v>1.006004997672832</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033337380093634</v>
+        <v>1.025157689948729</v>
       </c>
       <c r="J24">
-        <v>0.9959993282148963</v>
+        <v>1.016104264592001</v>
       </c>
       <c r="K24">
-        <v>1.007390207779976</v>
+        <v>1.020993303183371</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9489672417654904</v>
+        <v>1.009483181212172</v>
       </c>
       <c r="N24">
-        <v>1.002725856051228</v>
+        <v>1.009507185324536</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9751828697143005</v>
+        <v>1.011252907743381</v>
       </c>
       <c r="D25">
-        <v>0.9988418746087844</v>
+        <v>1.01864769112668</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9470192284460748</v>
+        <v>1.008640112080344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034923058503294</v>
+        <v>1.025334999255263</v>
       </c>
       <c r="J25">
-        <v>1.000575298947101</v>
+        <v>1.016997655778581</v>
       </c>
       <c r="K25">
-        <v>1.011458195625301</v>
+        <v>1.021755119241601</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9604997346923539</v>
+        <v>1.011780517073646</v>
       </c>
       <c r="N25">
-        <v>1.004257686946285</v>
+        <v>1.009804659664095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012465150128476</v>
+        <v>0.9812948249597442</v>
       </c>
       <c r="D2">
-        <v>1.01951604064521</v>
+        <v>1.003124115045425</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.010740916476713</v>
+        <v>0.9571286412557245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025470798456751</v>
+        <v>1.036090826729548</v>
       </c>
       <c r="J2">
-        <v>1.01770770969491</v>
+        <v>1.004049770457771</v>
       </c>
       <c r="K2">
-        <v>1.022359057194457</v>
+        <v>1.014540096896914</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.01361019273714</v>
+        <v>0.9692194160687839</v>
       </c>
       <c r="N2">
-        <v>1.010040949031979</v>
+        <v>1.005420563940237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013345178671971</v>
+        <v>0.9855880035512996</v>
       </c>
       <c r="D3">
-        <v>1.020145884982382</v>
+        <v>1.006135606688552</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.012265847099409</v>
+        <v>0.9641920221680703</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025566134964549</v>
+        <v>1.036885552847207</v>
       </c>
       <c r="J3">
-        <v>1.018221816741267</v>
+        <v>1.006479416372985</v>
       </c>
       <c r="K3">
-        <v>1.022795427714891</v>
+        <v>1.016690578644776</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.014937246691773</v>
+        <v>0.9753045458299269</v>
       </c>
       <c r="N3">
-        <v>1.010211950226538</v>
+        <v>1.006233551812205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013914539770927</v>
+        <v>0.9883032717929802</v>
       </c>
       <c r="D4">
-        <v>1.020553129343506</v>
+        <v>1.008041482197673</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.013252413402638</v>
+        <v>0.968645090408868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025626311157497</v>
+        <v>1.037376088523108</v>
       </c>
       <c r="J4">
-        <v>1.018553805669534</v>
+        <v>1.008010988565539</v>
       </c>
       <c r="K4">
-        <v>1.023076795657036</v>
+        <v>1.018043812873727</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.015795299103681</v>
+        <v>0.9791372756738685</v>
       </c>
       <c r="N4">
-        <v>1.01032233751154</v>
+        <v>1.006745922591536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014153880806983</v>
+        <v>0.9894303411722465</v>
       </c>
       <c r="D5">
-        <v>1.020724260529732</v>
+        <v>1.008832818210232</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.013667131301661</v>
+        <v>0.9704905122690031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025651246715274</v>
+        <v>1.037576757971924</v>
       </c>
       <c r="J5">
-        <v>1.018693212677721</v>
+        <v>1.008645494864919</v>
       </c>
       <c r="K5">
-        <v>1.023194844593337</v>
+        <v>1.018603838971798</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.016155875392288</v>
+        <v>0.9807247197928955</v>
       </c>
       <c r="N5">
-        <v>1.010368681547543</v>
+        <v>1.00695816001094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014194066139178</v>
+        <v>0.989618751208121</v>
       </c>
       <c r="D6">
-        <v>1.020752989824893</v>
+        <v>1.008965116398637</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.01373676238266</v>
+        <v>0.9707988445338948</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025655412237765</v>
+        <v>1.037610129131573</v>
       </c>
       <c r="J6">
-        <v>1.018716610275939</v>
+        <v>1.008751491649132</v>
       </c>
       <c r="K6">
-        <v>1.023214651551558</v>
+        <v>1.018697357515381</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.016216409129126</v>
+        <v>0.980989895384455</v>
       </c>
       <c r="N6">
-        <v>1.010376459231554</v>
+        <v>1.006993613272582</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013917737929911</v>
+        <v>0.9883183877017061</v>
       </c>
       <c r="D7">
-        <v>1.020555416299983</v>
+        <v>1.008052094505857</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.013257955013004</v>
+        <v>0.9686698518827369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02562664577248</v>
+        <v>1.037378791534936</v>
       </c>
       <c r="J7">
-        <v>1.018555669066086</v>
+        <v>1.008019503232214</v>
       </c>
       <c r="K7">
-        <v>1.023078373969009</v>
+        <v>1.018051330467967</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.01580011772158</v>
+        <v>0.9791585792598151</v>
       </c>
       <c r="N7">
-        <v>1.010322957009592</v>
+        <v>1.006748770802957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012762575603121</v>
+        <v>0.9827590705544951</v>
       </c>
       <c r="D8">
-        <v>1.019728962562579</v>
+        <v>1.004150930071869</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.011256311326515</v>
+        <v>0.9595409692771628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025503330939751</v>
+        <v>1.036364393409829</v>
       </c>
       <c r="J8">
-        <v>1.017881593815127</v>
+        <v>1.004879496921585</v>
       </c>
       <c r="K8">
-        <v>1.022506735998869</v>
+        <v>1.01527496642292</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.014058812006992</v>
+        <v>0.9712983828083039</v>
       </c>
       <c r="N8">
-        <v>1.010098793875453</v>
+        <v>1.005698221585964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010726452973645</v>
+        <v>0.9724544418915688</v>
       </c>
       <c r="D9">
-        <v>1.018270330221581</v>
+        <v>0.9969324902528413</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.007727660642969</v>
+        <v>0.9424836325728628</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025274461403161</v>
+        <v>1.034389335674897</v>
       </c>
       <c r="J9">
-        <v>1.016688638248549</v>
+        <v>0.9990188609556867</v>
       </c>
       <c r="K9">
-        <v>1.021491850308427</v>
+        <v>1.010075532492954</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.01098531139976</v>
+        <v>0.9565843063296622</v>
       </c>
       <c r="N9">
-        <v>1.009701786810282</v>
+        <v>1.003736686541793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009368651740673</v>
+        <v>0.9652000991071292</v>
       </c>
       <c r="D10">
-        <v>1.017296399074316</v>
+        <v>0.9918636233284194</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.005373897520623</v>
+        <v>0.930347665825238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025114118738875</v>
+        <v>1.032937335855302</v>
       </c>
       <c r="J10">
-        <v>1.015889874834531</v>
+        <v>0.9948658490855815</v>
       </c>
       <c r="K10">
-        <v>1.02081018198698</v>
+        <v>1.006381353115286</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008932610968912</v>
+        <v>0.9460997057674945</v>
       </c>
       <c r="N10">
-        <v>1.0094357720568</v>
+        <v>1.00234639422619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008780616866363</v>
+        <v>0.9619569952063491</v>
       </c>
       <c r="D11">
-        <v>1.016874327407501</v>
+        <v>0.9896015889739472</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.004354304818568</v>
+        <v>0.9248826769908969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025042850876049</v>
+        <v>1.032274199341237</v>
       </c>
       <c r="J11">
-        <v>1.015543180544393</v>
+        <v>0.9930027539970995</v>
       </c>
       <c r="K11">
-        <v>1.02051381190605</v>
+        <v>1.004722304964921</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.008042830255681</v>
+        <v>0.9413752955237881</v>
       </c>
       <c r="N11">
-        <v>1.009320266550671</v>
+        <v>1.001722671202647</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008562179664324</v>
+        <v>0.9607360392630864</v>
       </c>
       <c r="D12">
-        <v>1.016717498840403</v>
+        <v>0.988750678481535</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003975516668315</v>
+        <v>0.9228183989475033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025016102856504</v>
+        <v>1.032022490506449</v>
       </c>
       <c r="J12">
-        <v>1.015414278865622</v>
+        <v>0.9923003641294034</v>
       </c>
       <c r="K12">
-        <v>1.020403546359815</v>
+        <v>1.004096618466921</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.007712178328774</v>
+        <v>0.9395903634248826</v>
       </c>
       <c r="N12">
-        <v>1.009277314688424</v>
+        <v>1.001487528069341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008609035860887</v>
+        <v>0.9609986943579589</v>
       </c>
       <c r="D13">
-        <v>1.016751141458807</v>
+        <v>0.9889336956374315</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.004056771101</v>
+        <v>0.9232627957139679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025021852881515</v>
+        <v>1.032076730615323</v>
       </c>
       <c r="J13">
-        <v>1.015441934325729</v>
+        <v>0.9924515082234038</v>
       </c>
       <c r="K13">
-        <v>1.020427206857729</v>
+        <v>1.004231266389377</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.007783111061695</v>
+        <v>0.9399746392268347</v>
       </c>
       <c r="N13">
-        <v>1.009286530179553</v>
+        <v>1.001538127315723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008762561083269</v>
+        <v>0.9618564097639715</v>
       </c>
       <c r="D14">
-        <v>1.016861364973373</v>
+        <v>0.9895314741788113</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.004322995455115</v>
+        <v>0.9247127608580266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025040645504566</v>
+        <v>1.032253504326277</v>
       </c>
       <c r="J14">
-        <v>1.015532528021331</v>
+        <v>0.9929449092193892</v>
       </c>
       <c r="K14">
-        <v>1.020504701002291</v>
+        <v>1.004670781277781</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.008015501509361</v>
+        <v>0.9412283806087727</v>
       </c>
       <c r="N14">
-        <v>1.009316717114977</v>
+        <v>1.001703306114731</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008857151065145</v>
+        <v>0.9623826817951038</v>
       </c>
       <c r="D15">
-        <v>1.016929270400981</v>
+        <v>0.9898983498897402</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.004487016129489</v>
+        <v>0.925601493384254</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025052187699379</v>
+        <v>1.032361699195015</v>
       </c>
       <c r="J15">
-        <v>1.0155883293546</v>
+        <v>0.9932475184609053</v>
       </c>
       <c r="K15">
-        <v>1.02055242379186</v>
+        <v>1.004940313577508</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.008158665195096</v>
+        <v>0.9419967916448696</v>
       </c>
       <c r="N15">
-        <v>1.009335309925249</v>
+        <v>1.001804612745788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009407675601918</v>
+        <v>0.9654131017386715</v>
       </c>
       <c r="D16">
-        <v>1.017324403201073</v>
+        <v>0.9920122819815911</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.005441555616082</v>
+        <v>0.9307057037036558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025118809839256</v>
+        <v>1.032980602706447</v>
       </c>
       <c r="J16">
-        <v>1.01591286641251</v>
+        <v>0.9949880798365761</v>
       </c>
       <c r="K16">
-        <v>1.020829825765938</v>
+        <v>1.006490163744419</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.008991642358061</v>
+        <v>0.9464091669555872</v>
       </c>
       <c r="N16">
-        <v>1.009443431048831</v>
+        <v>1.002387314334691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009752978765827</v>
+        <v>0.9672860320850092</v>
       </c>
       <c r="D17">
-        <v>1.017572165532062</v>
+        <v>0.9933199052462545</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.006040202117356</v>
+        <v>0.933849341983079</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025160108118636</v>
+        <v>1.033359462695465</v>
       </c>
       <c r="J17">
-        <v>1.016116219123302</v>
+        <v>0.9960621195970691</v>
       </c>
       <c r="K17">
-        <v>1.021003510754397</v>
+        <v>1.007446083355306</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.00951388938703</v>
+        <v>0.9491259548647419</v>
       </c>
       <c r="N17">
-        <v>1.009511167076114</v>
+        <v>1.002746876979907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00995437881588</v>
+        <v>0.9683687193223517</v>
       </c>
       <c r="D18">
-        <v>1.017716646998083</v>
+        <v>0.9940761809146734</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.006389344539216</v>
+        <v>0.935662911835534</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025184019308314</v>
+        <v>1.033577141154739</v>
       </c>
       <c r="J18">
-        <v>1.016234751778809</v>
+        <v>0.9966823799584076</v>
       </c>
       <c r="K18">
-        <v>1.021104702161031</v>
+        <v>1.007997956681992</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.009818416146253</v>
+        <v>0.9506929815273675</v>
       </c>
       <c r="N18">
-        <v>1.009550645540729</v>
+        <v>1.002954523038067</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010023049430896</v>
+        <v>0.9687362611338803</v>
       </c>
       <c r="D19">
-        <v>1.01776590563764</v>
+        <v>0.9943329764515259</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.006508386835015</v>
+        <v>0.9362779689037237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025192142308913</v>
+        <v>1.033650809788866</v>
       </c>
       <c r="J19">
-        <v>1.016275154863213</v>
+        <v>0.9968928373007403</v>
       </c>
       <c r="K19">
-        <v>1.021139186113461</v>
+        <v>1.008185179397122</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.009922236612051</v>
+        <v>0.9512243740213301</v>
       </c>
       <c r="N19">
-        <v>1.009564101450109</v>
+        <v>1.003024977853731</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009715931981942</v>
+        <v>0.9670861010413327</v>
       </c>
       <c r="D20">
-        <v>1.01754558650184</v>
+        <v>0.9931802797815478</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.005975976983648</v>
+        <v>0.9335141534511844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025155695551425</v>
+        <v>1.033319157894274</v>
       </c>
       <c r="J20">
-        <v>1.01609440952989</v>
+        <v>0.9959475317631737</v>
       </c>
       <c r="K20">
-        <v>1.020984888006523</v>
+        <v>1.007344115177177</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.009457866683907</v>
+        <v>0.9488363089270647</v>
       </c>
       <c r="N20">
-        <v>1.009503902828596</v>
+        <v>1.002708515927623</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008717352143424</v>
+        <v>0.9616042931315923</v>
       </c>
       <c r="D21">
-        <v>1.016828908335452</v>
+        <v>0.9893557434808378</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.004244600891337</v>
+        <v>0.9242867541416789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025035119161451</v>
+        <v>1.032201599557409</v>
       </c>
       <c r="J21">
-        <v>1.015505853859475</v>
+        <v>0.9927999059860412</v>
       </c>
       <c r="K21">
-        <v>1.020481885888867</v>
+        <v>1.004541620108799</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.007947072436433</v>
+        <v>0.9408600355472182</v>
       </c>
       <c r="N21">
-        <v>1.009307829139176</v>
+        <v>1.001654762439375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00808941926877</v>
+        <v>0.9580626521454011</v>
       </c>
       <c r="D22">
-        <v>1.016378001735326</v>
+        <v>0.9868889165830644</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.003155630909402</v>
+        <v>0.9182848265134853</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024957711485288</v>
+        <v>1.031467633212596</v>
       </c>
       <c r="J22">
-        <v>1.015135088159735</v>
+        <v>0.9907606151285405</v>
       </c>
       <c r="K22">
-        <v>1.020164584288001</v>
+        <v>1.002724659193149</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.006996318615494</v>
+        <v>0.9356696519145022</v>
       </c>
       <c r="N22">
-        <v>1.009184272264412</v>
+        <v>1.000972065137139</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008422306578579</v>
+        <v>0.9599495118226318</v>
       </c>
       <c r="D23">
-        <v>1.016617064311926</v>
+        <v>0.9882027377002989</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.003732953106246</v>
+        <v>0.9214865651222607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024998898010285</v>
+        <v>1.031859770323381</v>
       </c>
       <c r="J23">
-        <v>1.01533170611373</v>
+        <v>0.9918476155120457</v>
       </c>
       <c r="K23">
-        <v>1.020332890762525</v>
+        <v>1.003693254847704</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.007500414278783</v>
+        <v>0.9384386572806069</v>
       </c>
       <c r="N23">
-        <v>1.009249798410093</v>
+        <v>1.00133595977082</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009732671857927</v>
+        <v>0.9671764713653717</v>
       </c>
       <c r="D24">
-        <v>1.017557596526902</v>
+        <v>0.9932433903733885</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.006004997672832</v>
+        <v>0.9336656725097373</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025157689948729</v>
+        <v>1.033337380093634</v>
       </c>
       <c r="J24">
-        <v>1.016104264592001</v>
+        <v>0.9959993282148965</v>
       </c>
       <c r="K24">
-        <v>1.020993303183371</v>
+        <v>1.007390207779976</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.009483181212172</v>
+        <v>0.9489672417654912</v>
       </c>
       <c r="N24">
-        <v>1.009507185324536</v>
+        <v>1.002725856051228</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011252907743381</v>
+        <v>0.9751828697143003</v>
       </c>
       <c r="D25">
-        <v>1.01864769112668</v>
+        <v>0.9988418746087842</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.008640112080344</v>
+        <v>0.9470192284460742</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025334999255263</v>
+        <v>1.034923058503294</v>
       </c>
       <c r="J25">
-        <v>1.016997655778581</v>
+        <v>1.000575298947101</v>
       </c>
       <c r="K25">
-        <v>1.021755119241601</v>
+        <v>1.0114581956253</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.011780517073646</v>
+        <v>0.9604997346923534</v>
       </c>
       <c r="N25">
-        <v>1.009804659664095</v>
+        <v>1.004257686946285</v>
       </c>
     </row>
   </sheetData>
